--- a/survey/Sample_Properties.xlsx
+++ b/survey/Sample_Properties.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>ZIPcode5</t>
   </si>
@@ -87,9 +87,6 @@
     <t>bike_score</t>
   </si>
   <si>
-    <t>2623 VANDERBILT LN  REDONDO BEACH CA  90278</t>
-  </si>
-  <si>
     <t>house</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>REDONDO BEACH</t>
   </si>
   <si>
-    <t>(33.872087950000001, -118.36232554999999)</t>
-  </si>
-  <si>
     <t>2601 FISK LN  REDONDO BEACH CA  90278</t>
   </si>
   <si>
@@ -210,16 +204,28 @@
     <t>(34.02454899, -118.50229037)</t>
   </si>
   <si>
-    <t>2912 CARDIFF AVE  LOS ANGELES CA  90034</t>
-  </si>
-  <si>
-    <t>(34.036153929999998, -118.39566911999999)</t>
-  </si>
-  <si>
     <t>10342 SANDLEWOOD LN  LOS ANGELES CA  91326</t>
   </si>
   <si>
     <t>(34.258663700000007, -118.5430472)</t>
+  </si>
+  <si>
+    <t>935 WESTBOURNE DR, NO 304  W HOLLYWOOD CA  90069</t>
+  </si>
+  <si>
+    <t>WEST HOLLYWOOD</t>
+  </si>
+  <si>
+    <t>(34.088423890000001, -118.38086874)</t>
+  </si>
+  <si>
+    <t>SANTA CLARITA</t>
+  </si>
+  <si>
+    <t>17725 HERON LN  CANYON COUNTRY CA  91387</t>
+  </si>
+  <si>
+    <t>(34.395692709999999, -118.44565575)</t>
   </si>
 </sst>
 </file>
@@ -229,8 +235,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -274,9 +280,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -577,7 +583,7 @@
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -635,13 +641,13 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
@@ -650,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" t="s">
         <v>10</v>
@@ -697,43 +703,43 @@
         <v>90278</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4">
+        <v>813305</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1496</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1963</v>
+      </c>
+      <c r="I2">
+        <v>20174158022021</v>
+      </c>
+      <c r="J2" s="1">
+        <v>42577</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4">
-        <v>930000</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2839</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>1966</v>
-      </c>
-      <c r="I2">
-        <v>20174082001027</v>
-      </c>
-      <c r="J2" s="1">
-        <v>42579</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="3">
         <v>0.56238028348869795</v>
@@ -742,22 +748,22 @@
         <v>0.559123994381305</v>
       </c>
       <c r="Q2" s="2">
-        <v>5011.7406481099997</v>
+        <v>5250.27089935</v>
       </c>
       <c r="R2">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="S2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T2">
         <v>8</v>
       </c>
       <c r="U2" s="2">
-        <v>34.626174926757798</v>
+        <v>33.869426727294901</v>
       </c>
       <c r="V2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W2">
         <v>14</v>
@@ -766,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -780,40 +786,40 @@
         <v>90278</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4">
-        <v>813305</v>
+        <v>813000</v>
       </c>
       <c r="D3" s="2">
-        <v>1496</v>
+        <v>1225</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1963</v>
+        <v>1949</v>
       </c>
       <c r="I3">
-        <v>20174158022021</v>
+        <v>20174151021003</v>
       </c>
       <c r="J3" s="1">
-        <v>42577</v>
+        <v>42557</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
         <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
       </c>
       <c r="N3" t="s">
         <v>34</v>
@@ -825,31 +831,31 @@
         <v>0.559123994381305</v>
       </c>
       <c r="Q3" s="2">
-        <v>5250.27089935</v>
+        <v>6559.3023393100002</v>
       </c>
       <c r="R3">
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
       <c r="S3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U3" s="2">
-        <v>33.869426727294901</v>
+        <v>26.2705764770507</v>
       </c>
       <c r="V3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -866,10 +872,10 @@
         <v>35</v>
       </c>
       <c r="C4" s="4">
-        <v>813000</v>
+        <v>765000</v>
       </c>
       <c r="D4" s="2">
-        <v>1225</v>
+        <v>2061</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -878,28 +884,28 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>1949</v>
+        <v>1981</v>
       </c>
       <c r="I4">
-        <v>20174151021003</v>
+        <v>20174156016063</v>
       </c>
       <c r="J4" s="1">
-        <v>42557</v>
+        <v>42566</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
         <v>24</v>
       </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" s="3">
         <v>0.56238028348869795</v>
@@ -908,31 +914,31 @@
         <v>0.559123994381305</v>
       </c>
       <c r="Q4" s="2">
-        <v>6559.3023393100002</v>
+        <v>15004.0484966</v>
       </c>
       <c r="R4">
-        <v>0.46</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U4" s="2">
-        <v>26.2705764770507</v>
+        <v>43.528591156005803</v>
       </c>
       <c r="V4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -946,40 +952,40 @@
         <v>90278</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4">
-        <v>765000</v>
+        <v>751810</v>
       </c>
       <c r="D5" s="2">
-        <v>2061</v>
+        <v>1710</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5">
-        <v>1981</v>
+        <v>2010</v>
       </c>
       <c r="I5">
-        <v>20174156016063</v>
+        <v>20174153030060</v>
       </c>
       <c r="J5" s="1">
-        <v>42566</v>
+        <v>42565</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
         <v>39</v>
@@ -991,31 +997,31 @@
         <v>0.559123994381305</v>
       </c>
       <c r="Q5" s="2">
-        <v>15004.0484966</v>
+        <v>7474.8321509799998</v>
       </c>
       <c r="R5">
-        <v>0.14000000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="S5">
+        <v>9</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5" s="2">
+        <v>30.363246917724599</v>
+      </c>
+      <c r="V5">
+        <v>9</v>
+      </c>
+      <c r="W5">
         <v>13</v>
       </c>
-      <c r="T5">
-        <v>9</v>
-      </c>
-      <c r="U5" s="2">
-        <v>43.528591156005803</v>
-      </c>
-      <c r="V5">
-        <v>6</v>
-      </c>
-      <c r="W5">
-        <v>15</v>
-      </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1026,16 +1032,16 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6">
-        <v>90278</v>
+        <v>91765</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="4">
-        <v>751810</v>
+        <v>755000</v>
       </c>
       <c r="D6" s="2">
-        <v>1710</v>
+        <v>2683</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1047,58 +1053,58 @@
         <v>3</v>
       </c>
       <c r="H6">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="I6">
-        <v>20174153030060</v>
+        <v>20178706014038</v>
       </c>
       <c r="J6" s="1">
-        <v>42565</v>
+        <v>42564</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O6" s="3">
-        <v>0.56238028348869795</v>
+        <v>0.55250533049040496</v>
       </c>
       <c r="P6" s="3">
-        <v>0.559123994381305</v>
+        <v>0.75932835820895495</v>
       </c>
       <c r="Q6" s="2">
-        <v>7474.8321509799998</v>
+        <v>8913.2519013500005</v>
       </c>
       <c r="R6">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="S6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T6">
+        <v>7</v>
+      </c>
+      <c r="U6" s="2">
+        <v>269.48178100585898</v>
+      </c>
+      <c r="V6">
         <v>5</v>
       </c>
-      <c r="U6" s="2">
-        <v>30.363246917724599</v>
-      </c>
-      <c r="V6">
-        <v>9</v>
-      </c>
       <c r="W6">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1109,16 +1115,16 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7">
-        <v>91765</v>
+        <v>91016</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4">
-        <v>755000</v>
+        <v>990000</v>
       </c>
       <c r="D7" s="2">
-        <v>2683</v>
+        <v>2722</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1130,58 +1136,58 @@
         <v>3</v>
       </c>
       <c r="H7">
-        <v>1991</v>
+        <v>2005</v>
       </c>
       <c r="I7">
-        <v>20178706014038</v>
+        <v>20178518037001</v>
       </c>
       <c r="J7" s="1">
-        <v>42564</v>
+        <v>42565</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O7" s="3">
-        <v>0.55250533049040496</v>
+        <v>0.55670453772365402</v>
       </c>
       <c r="P7" s="3">
-        <v>0.75932835820895495</v>
+        <v>0.49050955847336503</v>
       </c>
       <c r="Q7" s="2">
-        <v>8913.2519013500005</v>
+        <v>7761.4576618700003</v>
       </c>
       <c r="R7">
-        <v>0.44</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
         <v>4</v>
       </c>
-      <c r="T7">
-        <v>7</v>
-      </c>
       <c r="U7" s="2">
-        <v>269.48178100585898</v>
+        <v>211.52616882324199</v>
       </c>
       <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
         <v>5</v>
       </c>
-      <c r="W7">
-        <v>4</v>
-      </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1192,79 +1198,79 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
-        <v>91016</v>
+        <v>90275</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4">
-        <v>990000</v>
+        <v>730000</v>
       </c>
       <c r="D8" s="2">
-        <v>2722</v>
+        <v>1373</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>2005</v>
+        <v>1974</v>
       </c>
       <c r="I8">
-        <v>20178518037001</v>
+        <v>20177564020019</v>
       </c>
       <c r="J8" s="1">
-        <v>42565</v>
+        <v>42570</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" t="s">
         <v>24</v>
       </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O8" s="3">
-        <v>0.55670453772365402</v>
+        <v>0.55324527586424799</v>
       </c>
       <c r="P8" s="3">
-        <v>0.49050955847336503</v>
+        <v>0.79902673323642803</v>
       </c>
       <c r="Q8" s="2">
-        <v>7761.4576618700003</v>
+        <v>242000.722434</v>
       </c>
       <c r="R8">
-        <v>0.56000000000000005</v>
+        <v>0.98</v>
       </c>
       <c r="S8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U8" s="2">
-        <v>211.52616882324199</v>
+        <v>94.202003479003906</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1275,16 +1281,16 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9">
-        <v>90275</v>
+        <v>90066</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="4">
-        <v>730000</v>
+        <v>759500</v>
       </c>
       <c r="D9" s="2">
-        <v>1373</v>
+        <v>1095</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1296,78 +1302,78 @@
         <v>2</v>
       </c>
       <c r="H9">
-        <v>1974</v>
+        <v>2013</v>
       </c>
       <c r="I9">
-        <v>20177564020019</v>
+        <v>20174230008070</v>
       </c>
       <c r="J9" s="1">
-        <v>42570</v>
+        <v>42580</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O9" s="3">
-        <v>0.55324527586424799</v>
+        <v>0.376520509193776</v>
       </c>
       <c r="P9" s="3">
-        <v>0.79902673323642803</v>
+        <v>0.38096585168720898</v>
       </c>
       <c r="Q9" s="2">
-        <v>242000.722434</v>
+        <v>13756.8487563</v>
       </c>
       <c r="R9">
-        <v>0.98</v>
+        <v>0.33</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U9" s="2">
-        <v>94.202003479003906</v>
+        <v>9.3037033081054599</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10">
-        <v>90066</v>
+        <v>90405</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="4">
-        <v>759500</v>
+        <v>890000</v>
       </c>
       <c r="D10" s="2">
-        <v>1095</v>
+        <v>1504</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1376,81 +1382,81 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>2013</v>
+        <v>1974</v>
       </c>
       <c r="I10">
-        <v>20174230008070</v>
+        <v>20174270013031</v>
       </c>
       <c r="J10" s="1">
-        <v>42580</v>
+        <v>42577</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O10" s="3">
-        <v>0.376520509193776</v>
+        <v>0.29258614688478901</v>
       </c>
       <c r="P10" s="3">
-        <v>0.38096585168720898</v>
+        <v>0.32753219631047598</v>
       </c>
       <c r="Q10" s="2">
-        <v>13756.8487563</v>
+        <v>371692.28624099999</v>
       </c>
       <c r="R10">
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
       <c r="S10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U10" s="2">
-        <v>9.3037033081054599</v>
+        <v>48.745807647705</v>
       </c>
       <c r="V10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AA10">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11">
-        <v>90405</v>
+        <v>90066</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4">
-        <v>890000</v>
+        <v>760000</v>
       </c>
       <c r="D11" s="2">
-        <v>1504</v>
+        <v>1609</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1462,132 +1468,132 @@
         <v>3</v>
       </c>
       <c r="H11">
-        <v>1974</v>
+        <v>1991</v>
       </c>
       <c r="I11">
-        <v>20174270013031</v>
+        <v>20174233022047</v>
       </c>
       <c r="J11" s="1">
-        <v>42577</v>
+        <v>42566</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N11" t="s">
         <v>56</v>
       </c>
       <c r="O11" s="3">
-        <v>0.29258614688478901</v>
+        <v>0.376520509193776</v>
       </c>
       <c r="P11" s="3">
-        <v>0.32753219631047598</v>
+        <v>0.38096585168720898</v>
       </c>
       <c r="Q11" s="2">
-        <v>371692.28624099999</v>
+        <v>6954.80895341</v>
       </c>
       <c r="R11">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S11">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="T11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U11" s="2">
-        <v>48.745807647705</v>
+        <v>13.836050987243601</v>
       </c>
       <c r="V11">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="W11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="Z11">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AA11">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12">
-        <v>90066</v>
+        <v>90230</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="4">
-        <v>760000</v>
+        <v>773300</v>
       </c>
       <c r="D12" s="2">
-        <v>1609</v>
+        <v>1520</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
       <c r="H12">
-        <v>1991</v>
+        <v>1953</v>
       </c>
       <c r="I12">
-        <v>20174233022047</v>
+        <v>20174216015034</v>
       </c>
       <c r="J12" s="1">
-        <v>42566</v>
+        <v>42573</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O12" s="3">
-        <v>0.376520509193776</v>
+        <v>0.44061883816168601</v>
       </c>
       <c r="P12" s="3">
-        <v>0.38096585168720898</v>
+        <v>0.53094190808433095</v>
       </c>
       <c r="Q12" s="2">
-        <v>6954.80895341</v>
+        <v>4998.0126497399997</v>
       </c>
       <c r="R12">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="S12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U12" s="2">
-        <v>13.836050987243601</v>
+        <v>8.0453777313232404</v>
       </c>
       <c r="V12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W12">
         <v>10</v>
@@ -1596,276 +1602,276 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="Z12">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13">
-        <v>90230</v>
+        <v>90403</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="4">
-        <v>773300</v>
+        <v>820000</v>
       </c>
       <c r="D13" s="2">
-        <v>1520</v>
+        <v>1243</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
-        <v>1953</v>
+        <v>1974</v>
       </c>
       <c r="I13">
-        <v>20174216015034</v>
+        <v>20174292009075</v>
       </c>
       <c r="J13" s="1">
-        <v>42573</v>
+        <v>42580</v>
       </c>
       <c r="K13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
         <v>24</v>
-      </c>
-      <c r="M13" t="s">
-        <v>25</v>
       </c>
       <c r="N13" t="s">
         <v>61</v>
       </c>
       <c r="O13" s="3">
-        <v>0.44061883816168601</v>
+        <v>0.22760700102956299</v>
       </c>
       <c r="P13" s="3">
-        <v>0.53094190808433095</v>
+        <v>0.22532725400794201</v>
       </c>
       <c r="Q13" s="2">
-        <v>4998.0126497399997</v>
+        <v>15000.545001099999</v>
       </c>
       <c r="R13">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="S13">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T13">
         <v>10</v>
       </c>
       <c r="U13" s="2">
-        <v>8.0453777313232404</v>
+        <v>44.8280220031738</v>
       </c>
       <c r="V13">
         <v>6</v>
       </c>
       <c r="W13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14">
-        <v>90403</v>
+        <v>91326</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="4">
-        <v>820000</v>
+        <v>822514</v>
       </c>
       <c r="D14" s="2">
-        <v>1243</v>
+        <v>3649</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>1974</v>
+        <v>1998</v>
       </c>
       <c r="I14">
-        <v>20174292009075</v>
+        <v>20172728020017</v>
       </c>
       <c r="J14" s="1">
-        <v>42580</v>
+        <v>42577</v>
       </c>
       <c r="K14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
         <v>24</v>
-      </c>
-      <c r="M14" t="s">
-        <v>25</v>
       </c>
       <c r="N14" t="s">
         <v>63</v>
       </c>
       <c r="O14" s="3">
-        <v>0.22760700102956299</v>
+        <v>0.57859177859177802</v>
       </c>
       <c r="P14" s="3">
-        <v>0.22532725400794201</v>
+        <v>0.697924297924297</v>
       </c>
       <c r="Q14" s="2">
-        <v>15000.545001099999</v>
+        <v>9260.4951729900004</v>
       </c>
       <c r="R14">
-        <v>0.23</v>
+        <v>0.73</v>
       </c>
       <c r="S14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U14" s="2">
-        <v>44.8280220031738</v>
+        <v>298.96102905273398</v>
       </c>
       <c r="V14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W14">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="Z14">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AA14">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15">
-        <v>90034</v>
+        <v>90069</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="4">
-        <v>756652</v>
+        <v>875000</v>
       </c>
       <c r="D15" s="2">
-        <v>1852</v>
+        <v>1400</v>
       </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
       <c r="G15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>1950</v>
+        <v>1981</v>
       </c>
       <c r="I15">
-        <v>20174311010025</v>
+        <v>20174339007052</v>
       </c>
       <c r="J15" s="1">
-        <v>42558</v>
+        <v>42556</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="L15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" t="s">
         <v>24</v>
       </c>
-      <c r="M15" t="s">
-        <v>25</v>
-      </c>
       <c r="N15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O15" s="3">
-        <v>0.31487769117987402</v>
+        <v>6.7819572840293205E-2</v>
       </c>
       <c r="P15" s="3">
-        <v>0.189636546029786</v>
+        <v>0.37097545425565798</v>
       </c>
       <c r="Q15" s="2">
-        <v>5005.2227994699997</v>
+        <v>14332.666701800001</v>
       </c>
       <c r="R15">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S15">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U15" s="2">
-        <v>43.679309844970703</v>
+        <v>75.233169555664006</v>
       </c>
       <c r="V15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="Z15">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AA15">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16">
-        <v>91326</v>
+        <v>91387</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" s="4">
-        <v>822514</v>
+        <v>710000</v>
       </c>
       <c r="D16" s="2">
-        <v>3649</v>
+        <v>2838</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1877,64 +1883,64 @@
         <v>3</v>
       </c>
       <c r="H16">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="I16">
-        <v>20172728020017</v>
+        <v>20172841038054</v>
       </c>
       <c r="J16" s="1">
-        <v>42577</v>
+        <v>42564</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O16" s="3">
-        <v>0.57859177859177802</v>
+        <v>0.80620774878243795</v>
       </c>
       <c r="P16" s="3">
-        <v>0.697924297924297</v>
+        <v>0.62957040052336899</v>
       </c>
       <c r="Q16" s="2">
-        <v>9260.4951729900004</v>
+        <v>6326.2924994300001</v>
       </c>
       <c r="R16">
-        <v>0.73</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U16" s="2">
-        <v>298.96102905273398</v>
+        <v>529.51501464843705</v>
       </c>
       <c r="V16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="Z16">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
